--- a/downloaded_files/EPES201_Tutorial-35647.xlsx
+++ b/downloaded_files/EPES201_Tutorial-35647.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -94,6 +94,15 @@
   </x:si>
   <x:si>
     <x:t>Jomana Waleed Abdel Moneim Amin Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240213</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جنا محمد احمد على احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GANA MOHAMED AHMED ALI AHMED</x:t>
   </x:si>
   <x:si>
     <x:t>1240193</x:t>
@@ -488,7 +497,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -788,7 +797,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T39"/>
+  <x:dimension ref="A1:T40"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1103,7 +1112,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45914.4389700579</x:v>
+        <x:v>45919.4762141551</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1135,7 +1144,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6652091435</x:v>
+        <x:v>45914.4389700579</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1167,7 +1176,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6654596065</x:v>
+        <x:v>45907.6652091435</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1199,7 +1208,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.8907292824</x:v>
+        <x:v>45907.6654596065</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1231,7 +1240,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6646685995</x:v>
+        <x:v>45912.8907292824</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1263,7 +1272,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4149797454</x:v>
+        <x:v>45907.6646685995</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1295,7 +1304,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6654020833</x:v>
+        <x:v>45907.4149797454</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1327,7 +1336,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.665162963</x:v>
+        <x:v>45907.6654020833</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1359,7 +1368,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6653321412</x:v>
+        <x:v>45907.665162963</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1391,7 +1400,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4149753819</x:v>
+        <x:v>45907.6653321412</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1423,7 +1432,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6658606482</x:v>
+        <x:v>45907.4149753819</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1455,7 +1464,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4153724537</x:v>
+        <x:v>45907.6658606482</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1487,7 +1496,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4181934375</x:v>
+        <x:v>45907.4153724537</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1519,7 +1528,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4200526273</x:v>
+        <x:v>45907.4181934375</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1551,7 +1560,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4148635417</x:v>
+        <x:v>45907.4200526273</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1583,7 +1592,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.8928851042</x:v>
+        <x:v>45907.4148635417</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1615,7 +1624,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6653508102</x:v>
+        <x:v>45912.8928851042</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1647,7 +1656,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45911.9793371528</x:v>
+        <x:v>45907.6653508102</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1679,7 +1688,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.665284375</x:v>
+        <x:v>45911.9793371528</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1711,7 +1720,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4152035532</x:v>
+        <x:v>45907.665284375</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1743,7 +1752,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6648720718</x:v>
+        <x:v>45907.4152035532</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1775,7 +1784,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4204639699</x:v>
+        <x:v>45907.6648720718</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1807,7 +1816,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.415737581</x:v>
+        <x:v>45907.4204639699</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1839,7 +1848,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6649320949</x:v>
+        <x:v>45907.415737581</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1871,7 +1880,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45907.6649320949</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1903,7 +1912,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4194505787</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1935,7 +1944,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.664794213</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1967,7 +1976,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45912.8922424769</x:v>
+        <x:v>45907.664794213</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1999,7 +2008,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45911.9745234606</x:v>
+        <x:v>45912.8922424769</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2031,7 +2040,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6658591782</x:v>
+        <x:v>45911.9745234606</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2063,7 +2072,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45916.2379621181</x:v>
+        <x:v>45907.6658591782</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2080,6 +2089,38 @@
       <x:c r="R39" s="2" t="s"/>
       <x:c r="S39" s="2" t="s"/>
       <x:c r="T39" s="2" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:20">
+      <x:c r="A40" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B40" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="D40" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="E40" s="3">
+        <x:v>45916.2379621181</x:v>
+      </x:c>
+      <x:c r="F40" s="2" t="s"/>
+      <x:c r="G40" s="2" t="s"/>
+      <x:c r="H40" s="2" t="s"/>
+      <x:c r="I40" s="2" t="s"/>
+      <x:c r="J40" s="2" t="s"/>
+      <x:c r="K40" s="2" t="s"/>
+      <x:c r="L40" s="2" t="s"/>
+      <x:c r="M40" s="2" t="s"/>
+      <x:c r="N40" s="2" t="s"/>
+      <x:c r="O40" s="2" t="s"/>
+      <x:c r="P40" s="2" t="s"/>
+      <x:c r="Q40" s="2" t="s"/>
+      <x:c r="R40" s="2" t="s"/>
+      <x:c r="S40" s="2" t="s"/>
+      <x:c r="T40" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES201_Tutorial-35647.xlsx
+++ b/downloaded_files/EPES201_Tutorial-35647.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -310,6 +310,15 @@
   </x:si>
   <x:si>
     <x:t>marwan osama soliman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240374</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفى كمال محمد جمال عبدالحميد خالد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moustafa Kamal Mohamed Gamal Abelhamid Khalid</x:t>
   </x:si>
   <x:si>
     <x:t>1230259</x:t>
@@ -497,7 +506,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -797,7 +806,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T40"/>
+  <x:dimension ref="A1:T41"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1880,7 +1889,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6649320949</x:v>
+        <x:v>45921.5442414699</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1912,7 +1921,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45907.6649320949</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1944,7 +1953,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4194505787</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1976,7 +1985,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.664794213</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2008,7 +2017,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45912.8922424769</x:v>
+        <x:v>45907.664794213</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2040,7 +2049,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45911.9745234606</x:v>
+        <x:v>45912.8922424769</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2072,7 +2081,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6658591782</x:v>
+        <x:v>45911.9745234606</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2104,7 +2113,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45916.2379621181</x:v>
+        <x:v>45907.6658591782</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2121,6 +2130,38 @@
       <x:c r="R40" s="2" t="s"/>
       <x:c r="S40" s="2" t="s"/>
       <x:c r="T40" s="2" t="s"/>
+    </x:row>
+    <x:row r="41" spans="1:20">
+      <x:c r="A41" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B41" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="D41" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="E41" s="3">
+        <x:v>45916.2379621181</x:v>
+      </x:c>
+      <x:c r="F41" s="2" t="s"/>
+      <x:c r="G41" s="2" t="s"/>
+      <x:c r="H41" s="2" t="s"/>
+      <x:c r="I41" s="2" t="s"/>
+      <x:c r="J41" s="2" t="s"/>
+      <x:c r="K41" s="2" t="s"/>
+      <x:c r="L41" s="2" t="s"/>
+      <x:c r="M41" s="2" t="s"/>
+      <x:c r="N41" s="2" t="s"/>
+      <x:c r="O41" s="2" t="s"/>
+      <x:c r="P41" s="2" t="s"/>
+      <x:c r="Q41" s="2" t="s"/>
+      <x:c r="R41" s="2" t="s"/>
+      <x:c r="S41" s="2" t="s"/>
+      <x:c r="T41" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES201_Tutorial-35647.xlsx
+++ b/downloaded_files/EPES201_Tutorial-35647.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -382,6 +382,15 @@
   </x:si>
   <x:si>
     <x:t>Youanna Girgis Abdou Hendy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف احمد محمد محمد عيسى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yuossef Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1240190</x:t>
@@ -506,7 +515,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -806,7 +815,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T41"/>
+  <x:dimension ref="A1:T42"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2145,7 +2154,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45916.2379621181</x:v>
+        <x:v>45921.9223017014</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2162,6 +2171,38 @@
       <x:c r="R41" s="2" t="s"/>
       <x:c r="S41" s="2" t="s"/>
       <x:c r="T41" s="2" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:20">
+      <x:c r="A42" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="D42" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="E42" s="3">
+        <x:v>45916.2379621181</x:v>
+      </x:c>
+      <x:c r="F42" s="2" t="s"/>
+      <x:c r="G42" s="2" t="s"/>
+      <x:c r="H42" s="2" t="s"/>
+      <x:c r="I42" s="2" t="s"/>
+      <x:c r="J42" s="2" t="s"/>
+      <x:c r="K42" s="2" t="s"/>
+      <x:c r="L42" s="2" t="s"/>
+      <x:c r="M42" s="2" t="s"/>
+      <x:c r="N42" s="2" t="s"/>
+      <x:c r="O42" s="2" t="s"/>
+      <x:c r="P42" s="2" t="s"/>
+      <x:c r="Q42" s="2" t="s"/>
+      <x:c r="R42" s="2" t="s"/>
+      <x:c r="S42" s="2" t="s"/>
+      <x:c r="T42" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES201_Tutorial-35647.xlsx
+++ b/downloaded_files/EPES201_Tutorial-35647.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -283,6 +283,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Ahmed fahmy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250191</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد الغريب عبدالوهاب الغريب مصطفى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Algharieb</x:t>
   </x:si>
   <x:si>
     <x:t>1240363</x:t>
@@ -515,7 +524,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -815,7 +824,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T42"/>
+  <x:dimension ref="A1:T43"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1802,7 +1811,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6648720718</x:v>
+        <x:v>45922.7240253125</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1834,7 +1843,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4204639699</x:v>
+        <x:v>45907.6648720718</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1866,7 +1875,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.415737581</x:v>
+        <x:v>45907.4204639699</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1898,7 +1907,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45921.5442414699</x:v>
+        <x:v>45907.415737581</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1930,7 +1939,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6649320949</x:v>
+        <x:v>45921.5442414699</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1962,7 +1971,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45907.6649320949</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1994,7 +2003,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4194505787</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2026,7 +2035,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.664794213</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2058,7 +2067,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45912.8922424769</x:v>
+        <x:v>45907.664794213</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2090,7 +2099,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45911.9745234606</x:v>
+        <x:v>45912.8922424769</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2122,7 +2131,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6658591782</x:v>
+        <x:v>45911.9745234606</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2154,7 +2163,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45921.9223017014</x:v>
+        <x:v>45907.6658591782</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2186,7 +2195,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45916.2379621181</x:v>
+        <x:v>45921.9223017014</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2203,6 +2212,38 @@
       <x:c r="R42" s="2" t="s"/>
       <x:c r="S42" s="2" t="s"/>
       <x:c r="T42" s="2" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:20">
+      <x:c r="A43" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="D43" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="E43" s="3">
+        <x:v>45916.2379621181</x:v>
+      </x:c>
+      <x:c r="F43" s="2" t="s"/>
+      <x:c r="G43" s="2" t="s"/>
+      <x:c r="H43" s="2" t="s"/>
+      <x:c r="I43" s="2" t="s"/>
+      <x:c r="J43" s="2" t="s"/>
+      <x:c r="K43" s="2" t="s"/>
+      <x:c r="L43" s="2" t="s"/>
+      <x:c r="M43" s="2" t="s"/>
+      <x:c r="N43" s="2" t="s"/>
+      <x:c r="O43" s="2" t="s"/>
+      <x:c r="P43" s="2" t="s"/>
+      <x:c r="Q43" s="2" t="s"/>
+      <x:c r="R43" s="2" t="s"/>
+      <x:c r="S43" s="2" t="s"/>
+      <x:c r="T43" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES201_Tutorial-35647.xlsx
+++ b/downloaded_files/EPES201_Tutorial-35647.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -274,6 +274,15 @@
   </x:si>
   <x:si>
     <x:t>Maher Mohammed Fathy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210413</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مايفى عماد مملوك فخرى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maive Emad Mamlouk Fakhry</x:t>
   </x:si>
   <x:si>
     <x:t>1230096</x:t>
@@ -524,7 +533,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -824,7 +833,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T43"/>
+  <x:dimension ref="A1:T44"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1779,7 +1788,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4152035532</x:v>
+        <x:v>45923.5615092245</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1811,7 +1820,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45922.7240253125</x:v>
+        <x:v>45907.4152035532</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1843,7 +1852,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6648720718</x:v>
+        <x:v>45922.7240253125</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1875,7 +1884,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4204639699</x:v>
+        <x:v>45907.6648720718</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1907,7 +1916,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.415737581</x:v>
+        <x:v>45907.4204639699</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1939,7 +1948,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45921.5442414699</x:v>
+        <x:v>45907.415737581</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1971,7 +1980,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6649320949</x:v>
+        <x:v>45921.5442414699</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2003,7 +2012,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45907.6649320949</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2035,7 +2044,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4194505787</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2067,7 +2076,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.664794213</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2099,7 +2108,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45912.8922424769</x:v>
+        <x:v>45907.664794213</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2131,7 +2140,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45911.9745234606</x:v>
+        <x:v>45912.8922424769</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2163,7 +2172,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6658591782</x:v>
+        <x:v>45911.9745234606</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2195,7 +2204,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45921.9223017014</x:v>
+        <x:v>45907.6658591782</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2227,7 +2236,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45916.2379621181</x:v>
+        <x:v>45921.9223017014</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2244,6 +2253,38 @@
       <x:c r="R43" s="2" t="s"/>
       <x:c r="S43" s="2" t="s"/>
       <x:c r="T43" s="2" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:20">
+      <x:c r="A44" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B44" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="D44" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="E44" s="3">
+        <x:v>45916.2379621181</x:v>
+      </x:c>
+      <x:c r="F44" s="2" t="s"/>
+      <x:c r="G44" s="2" t="s"/>
+      <x:c r="H44" s="2" t="s"/>
+      <x:c r="I44" s="2" t="s"/>
+      <x:c r="J44" s="2" t="s"/>
+      <x:c r="K44" s="2" t="s"/>
+      <x:c r="L44" s="2" t="s"/>
+      <x:c r="M44" s="2" t="s"/>
+      <x:c r="N44" s="2" t="s"/>
+      <x:c r="O44" s="2" t="s"/>
+      <x:c r="P44" s="2" t="s"/>
+      <x:c r="Q44" s="2" t="s"/>
+      <x:c r="R44" s="2" t="s"/>
+      <x:c r="S44" s="2" t="s"/>
+      <x:c r="T44" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES201_Tutorial-35647.xlsx
+++ b/downloaded_files/EPES201_Tutorial-35647.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -49,6 +49,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Atef Merhy Abdel Naim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمود محمد محمد خليفة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmad Mahmoud Mohamed Mohamed Khalifa</x:t>
   </x:si>
   <x:si>
     <x:t>1240285</x:t>
@@ -533,7 +542,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -833,7 +842,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T44"/>
+  <x:dimension ref="A1:T45"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -988,7 +997,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6655310185</x:v>
+        <x:v>45925.3110492245</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1020,7 +1029,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45912.8933942477</x:v>
+        <x:v>45907.6655310185</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1052,7 +1061,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4165448727</x:v>
+        <x:v>45912.8933942477</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1084,7 +1093,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4200832176</x:v>
+        <x:v>45907.4165448727</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1116,7 +1125,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6656269329</x:v>
+        <x:v>45907.4200832176</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1148,7 +1157,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45919.4762141551</x:v>
+        <x:v>45907.6656269329</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1180,7 +1189,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45914.4389700579</x:v>
+        <x:v>45919.4762141551</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1212,7 +1221,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6652091435</x:v>
+        <x:v>45914.4389700579</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1244,7 +1253,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6654596065</x:v>
+        <x:v>45907.6652091435</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1276,7 +1285,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.8907292824</x:v>
+        <x:v>45907.6654596065</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1308,7 +1317,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6646685995</x:v>
+        <x:v>45912.8907292824</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1340,7 +1349,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4149797454</x:v>
+        <x:v>45907.6646685995</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1372,7 +1381,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6654020833</x:v>
+        <x:v>45907.4149797454</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1404,7 +1413,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.665162963</x:v>
+        <x:v>45907.6654020833</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1436,7 +1445,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6653321412</x:v>
+        <x:v>45907.665162963</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1468,7 +1477,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4149753819</x:v>
+        <x:v>45907.6653321412</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1500,7 +1509,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6658606482</x:v>
+        <x:v>45907.4149753819</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1532,7 +1541,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4153724537</x:v>
+        <x:v>45907.6658606482</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1564,7 +1573,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4181934375</x:v>
+        <x:v>45907.4153724537</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1596,7 +1605,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4200526273</x:v>
+        <x:v>45907.4181934375</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1628,7 +1637,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4148635417</x:v>
+        <x:v>45907.4200526273</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1660,7 +1669,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45912.8928851042</x:v>
+        <x:v>45907.4148635417</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1692,7 +1701,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6653508102</x:v>
+        <x:v>45912.8928851042</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1724,7 +1733,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45911.9793371528</x:v>
+        <x:v>45907.6653508102</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1756,7 +1765,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.665284375</x:v>
+        <x:v>45911.9793371528</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1788,7 +1797,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45923.5615092245</x:v>
+        <x:v>45907.665284375</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1820,7 +1829,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4152035532</x:v>
+        <x:v>45923.5615092245</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1852,7 +1861,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45922.7240253125</x:v>
+        <x:v>45907.4152035532</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1884,7 +1893,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6648720718</x:v>
+        <x:v>45922.7240253125</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1916,7 +1925,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4204639699</x:v>
+        <x:v>45907.6648720718</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1948,7 +1957,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.415737581</x:v>
+        <x:v>45907.4204639699</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1980,7 +1989,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45921.5442414699</x:v>
+        <x:v>45907.415737581</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2012,7 +2021,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6649320949</x:v>
+        <x:v>45921.5442414699</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2044,7 +2053,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45907.6649320949</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2076,7 +2085,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.4194505787</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2108,7 +2117,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.664794213</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2140,7 +2149,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45912.8922424769</x:v>
+        <x:v>45907.664794213</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2172,7 +2181,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45911.9745234606</x:v>
+        <x:v>45912.8922424769</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2204,7 +2213,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6658591782</x:v>
+        <x:v>45911.9745234606</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2236,7 +2245,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45921.9223017014</x:v>
+        <x:v>45907.6658591782</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2268,7 +2277,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45916.2379621181</x:v>
+        <x:v>45921.9223017014</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2285,6 +2294,38 @@
       <x:c r="R44" s="2" t="s"/>
       <x:c r="S44" s="2" t="s"/>
       <x:c r="T44" s="2" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:20">
+      <x:c r="A45" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B45" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="D45" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="E45" s="3">
+        <x:v>45916.2379621181</x:v>
+      </x:c>
+      <x:c r="F45" s="2" t="s"/>
+      <x:c r="G45" s="2" t="s"/>
+      <x:c r="H45" s="2" t="s"/>
+      <x:c r="I45" s="2" t="s"/>
+      <x:c r="J45" s="2" t="s"/>
+      <x:c r="K45" s="2" t="s"/>
+      <x:c r="L45" s="2" t="s"/>
+      <x:c r="M45" s="2" t="s"/>
+      <x:c r="N45" s="2" t="s"/>
+      <x:c r="O45" s="2" t="s"/>
+      <x:c r="P45" s="2" t="s"/>
+      <x:c r="Q45" s="2" t="s"/>
+      <x:c r="R45" s="2" t="s"/>
+      <x:c r="S45" s="2" t="s"/>
+      <x:c r="T45" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES201_Tutorial-35647.xlsx
+++ b/downloaded_files/EPES201_Tutorial-35647.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -132,6 +132,15 @@
     <x:t>Hamza Muhammed Abdallah Muhammed Muhammed</x:t>
   </x:si>
   <x:si>
+    <x:t>1240303</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حمزه محمد حلمي محمد مرجان حجازى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hamza Mohamed Helmy Mohamed Morgan</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240312</x:t>
   </x:si>
   <x:si>
@@ -211,6 +220,15 @@
   </x:si>
   <x:si>
     <x:t>Ali Hassan Ali Hassan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210061</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على محمد عبد المنجى مصطفى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali mohamed abdelmongy mostafa</x:t>
   </x:si>
   <x:si>
     <x:t>1220133</x:t>
@@ -542,7 +560,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -842,7 +860,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T45"/>
+  <x:dimension ref="A1:T47"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1285,7 +1303,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6654596065</x:v>
+        <x:v>45925.7893116551</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1317,7 +1335,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.8907292824</x:v>
+        <x:v>45907.6654596065</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1349,7 +1367,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6646685995</x:v>
+        <x:v>45912.8907292824</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1381,7 +1399,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4149797454</x:v>
+        <x:v>45907.6646685995</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1413,7 +1431,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6654020833</x:v>
+        <x:v>45907.4149797454</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1445,7 +1463,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.665162963</x:v>
+        <x:v>45907.6654020833</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1477,7 +1495,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6653321412</x:v>
+        <x:v>45907.665162963</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1509,7 +1527,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4149753819</x:v>
+        <x:v>45907.6653321412</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1541,7 +1559,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6658606482</x:v>
+        <x:v>45907.4149753819</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1573,7 +1591,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4153724537</x:v>
+        <x:v>45907.6658606482</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1605,7 +1623,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4181934375</x:v>
+        <x:v>45925.9122760069</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1637,7 +1655,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4200526273</x:v>
+        <x:v>45907.4153724537</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1669,7 +1687,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4148635417</x:v>
+        <x:v>45907.4181934375</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1701,7 +1719,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45912.8928851042</x:v>
+        <x:v>45907.4200526273</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1733,7 +1751,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6653508102</x:v>
+        <x:v>45907.4148635417</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1765,7 +1783,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45911.9793371528</x:v>
+        <x:v>45912.8928851042</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1797,7 +1815,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.665284375</x:v>
+        <x:v>45907.6653508102</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1829,7 +1847,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45923.5615092245</x:v>
+        <x:v>45911.9793371528</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1861,7 +1879,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4152035532</x:v>
+        <x:v>45907.665284375</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1893,7 +1911,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45922.7240253125</x:v>
+        <x:v>45923.5615092245</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1925,7 +1943,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6648720718</x:v>
+        <x:v>45907.4152035532</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1957,7 +1975,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4204639699</x:v>
+        <x:v>45922.7240253125</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1989,7 +2007,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.415737581</x:v>
+        <x:v>45907.6648720718</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2021,7 +2039,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45921.5442414699</x:v>
+        <x:v>45907.4204639699</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2053,7 +2071,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6649320949</x:v>
+        <x:v>45907.415737581</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2085,7 +2103,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45921.5442414699</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2117,7 +2135,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.4194505787</x:v>
+        <x:v>45907.6649320949</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2149,7 +2167,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.664794213</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2181,7 +2199,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45912.8922424769</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2213,7 +2231,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45911.9745234606</x:v>
+        <x:v>45907.664794213</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2245,7 +2263,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.6658591782</x:v>
+        <x:v>45912.8922424769</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2277,7 +2295,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45921.9223017014</x:v>
+        <x:v>45911.9745234606</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2309,7 +2327,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45916.2379621181</x:v>
+        <x:v>45907.6658591782</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2326,6 +2344,70 @@
       <x:c r="R45" s="2" t="s"/>
       <x:c r="S45" s="2" t="s"/>
       <x:c r="T45" s="2" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:20">
+      <x:c r="A46" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B46" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="D46" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="E46" s="3">
+        <x:v>45921.9223017014</x:v>
+      </x:c>
+      <x:c r="F46" s="2" t="s"/>
+      <x:c r="G46" s="2" t="s"/>
+      <x:c r="H46" s="2" t="s"/>
+      <x:c r="I46" s="2" t="s"/>
+      <x:c r="J46" s="2" t="s"/>
+      <x:c r="K46" s="2" t="s"/>
+      <x:c r="L46" s="2" t="s"/>
+      <x:c r="M46" s="2" t="s"/>
+      <x:c r="N46" s="2" t="s"/>
+      <x:c r="O46" s="2" t="s"/>
+      <x:c r="P46" s="2" t="s"/>
+      <x:c r="Q46" s="2" t="s"/>
+      <x:c r="R46" s="2" t="s"/>
+      <x:c r="S46" s="2" t="s"/>
+      <x:c r="T46" s="2" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:20">
+      <x:c r="A47" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B47" s="2" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="D47" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="E47" s="3">
+        <x:v>45916.2379621181</x:v>
+      </x:c>
+      <x:c r="F47" s="2" t="s"/>
+      <x:c r="G47" s="2" t="s"/>
+      <x:c r="H47" s="2" t="s"/>
+      <x:c r="I47" s="2" t="s"/>
+      <x:c r="J47" s="2" t="s"/>
+      <x:c r="K47" s="2" t="s"/>
+      <x:c r="L47" s="2" t="s"/>
+      <x:c r="M47" s="2" t="s"/>
+      <x:c r="N47" s="2" t="s"/>
+      <x:c r="O47" s="2" t="s"/>
+      <x:c r="P47" s="2" t="s"/>
+      <x:c r="Q47" s="2" t="s"/>
+      <x:c r="R47" s="2" t="s"/>
+      <x:c r="S47" s="2" t="s"/>
+      <x:c r="T47" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES201_Tutorial-35647.xlsx
+++ b/downloaded_files/EPES201_Tutorial-35647.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -51,15 +51,6 @@
     <x:t>Ahmed Atef Merhy Abdel Naim</x:t>
   </x:si>
   <x:si>
-    <x:t>1240018</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد محمود محمد محمد خليفة</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmad Mahmoud Mohamed Mohamed Khalifa</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240285</x:t>
   </x:si>
   <x:si>
@@ -114,6 +105,15 @@
     <x:t>GANA MOHAMED AHMED ALI AHMED</x:t>
   </x:si>
   <x:si>
+    <x:t>1240294</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جنى حسام الدين احمد عبدالفتاح</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jana HossamEldin Ahmed Abdelfattah</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240193</x:t>
   </x:si>
   <x:si>
@@ -330,6 +330,12 @@
     <x:t>Mohamed Algharieb</x:t>
   </x:si>
   <x:si>
+    <x:t>4240046</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد شعبان محمد صالح</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240363</x:t>
   </x:si>
   <x:si>
@@ -355,15 +361,6 @@
   </x:si>
   <x:si>
     <x:t>marwan osama soliman</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240374</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مصطفى كمال محمد جمال عبدالحميد خالد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Moustafa Kamal Mohamed Gamal Abelhamid Khalid</x:t>
   </x:si>
   <x:si>
     <x:t>1230259</x:t>
@@ -1015,7 +1012,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45925.3110492245</x:v>
+        <x:v>45907.6655310185</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1047,7 +1044,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6655310185</x:v>
+        <x:v>45912.8933942477</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1079,7 +1076,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45912.8933942477</x:v>
+        <x:v>45907.4165448727</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1111,7 +1108,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4165448727</x:v>
+        <x:v>45907.4200832176</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1143,7 +1140,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4200832176</x:v>
+        <x:v>45907.6656269329</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1175,7 +1172,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6656269329</x:v>
+        <x:v>45919.4762141551</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1207,7 +1204,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45919.4762141551</x:v>
+        <x:v>45927.4454287384</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -2003,11 +2000,9 @@
       <x:c r="C35" s="2" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
+      <x:c r="D35" s="2" t="s"/>
       <x:c r="E35" s="3">
-        <x:v>45907.6648720718</x:v>
+        <x:v>45927.4720945602</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2030,16 +2025,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="C36" s="2" t="s">
+      <x:c r="D36" s="2" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4204639699</x:v>
+        <x:v>45907.6648720718</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2062,16 +2057,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
         <x:v>110</x:v>
       </x:c>
-      <x:c r="C37" s="2" t="s">
+      <x:c r="D37" s="2" t="s">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.415737581</x:v>
+        <x:v>45907.4204639699</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2094,16 +2089,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="C38" s="2" t="s">
+      <x:c r="D38" s="2" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>115</x:v>
-      </x:c>
       <x:c r="E38" s="3">
-        <x:v>45921.5442414699</x:v>
+        <x:v>45907.415737581</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2126,13 +2121,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
         <x:v>116</x:v>
       </x:c>
-      <x:c r="C39" s="2" t="s">
+      <x:c r="D39" s="2" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="D39" s="2" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
         <x:v>45907.6649320949</x:v>
@@ -2158,13 +2153,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="C40" s="2" t="s">
+      <x:c r="D40" s="2" t="s">
         <x:v>120</x:v>
-      </x:c>
-      <x:c r="D40" s="2" t="s">
-        <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
         <x:v>45907.6648476505</x:v>
@@ -2190,13 +2185,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="C41" s="2" t="s">
+      <x:c r="D41" s="2" t="s">
         <x:v>123</x:v>
-      </x:c>
-      <x:c r="D41" s="2" t="s">
-        <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
         <x:v>45907.4194505787</x:v>
@@ -2222,13 +2217,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
         <x:v>125</x:v>
       </x:c>
-      <x:c r="C42" s="2" t="s">
+      <x:c r="D42" s="2" t="s">
         <x:v>126</x:v>
-      </x:c>
-      <x:c r="D42" s="2" t="s">
-        <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
         <x:v>45907.664794213</x:v>
@@ -2254,13 +2249,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B43" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="C43" s="2" t="s">
+      <x:c r="D43" s="2" t="s">
         <x:v>129</x:v>
-      </x:c>
-      <x:c r="D43" s="2" t="s">
-        <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
         <x:v>45912.8922424769</x:v>
@@ -2286,13 +2281,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B44" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
         <x:v>131</x:v>
       </x:c>
-      <x:c r="C44" s="2" t="s">
+      <x:c r="D44" s="2" t="s">
         <x:v>132</x:v>
-      </x:c>
-      <x:c r="D44" s="2" t="s">
-        <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
         <x:v>45911.9745234606</x:v>
@@ -2318,13 +2313,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B45" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
         <x:v>134</x:v>
       </x:c>
-      <x:c r="C45" s="2" t="s">
+      <x:c r="D45" s="2" t="s">
         <x:v>135</x:v>
-      </x:c>
-      <x:c r="D45" s="2" t="s">
-        <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
         <x:v>45907.6658591782</x:v>
@@ -2350,13 +2345,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B46" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
         <x:v>137</x:v>
       </x:c>
-      <x:c r="C46" s="2" t="s">
+      <x:c r="D46" s="2" t="s">
         <x:v>138</x:v>
-      </x:c>
-      <x:c r="D46" s="2" t="s">
-        <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
         <x:v>45921.9223017014</x:v>
@@ -2382,13 +2377,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B47" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
         <x:v>140</x:v>
       </x:c>
-      <x:c r="C47" s="2" t="s">
+      <x:c r="D47" s="2" t="s">
         <x:v>141</x:v>
-      </x:c>
-      <x:c r="D47" s="2" t="s">
-        <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
         <x:v>45916.2379621181</x:v>

--- a/downloaded_files/EPES201_Tutorial-35647.xlsx
+++ b/downloaded_files/EPES201_Tutorial-35647.xlsx
@@ -2066,7 +2066,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4204639699</x:v>
+        <x:v>45928.9745405093</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>

--- a/downloaded_files/EPES201_Tutorial-35647.xlsx
+++ b/downloaded_files/EPES201_Tutorial-35647.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -51,6 +51,15 @@
     <x:t>Ahmed Atef Merhy Abdel Naim</x:t>
   </x:si>
   <x:si>
+    <x:t>1240018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمود محمد محمد خليفة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmad Mahmoud Mohamed Mohamed Khalifa</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240285</x:t>
   </x:si>
   <x:si>
@@ -58,6 +67,15 @@
   </x:si>
   <x:si>
     <x:t>AHMED MEDHAT MOHAMED NABIL KAMEL EMARA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد وائل فوزى سعد بكر ابو العز</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Wael fawzi saad bakr aboelez</x:t>
   </x:si>
   <x:si>
     <x:t>1240021</x:t>
@@ -557,7 +575,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -857,7 +875,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T47"/>
+  <x:dimension ref="A1:T49"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1012,7 +1030,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6655310185</x:v>
+        <x:v>45929.3008427431</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1044,7 +1062,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45912.8933942477</x:v>
+        <x:v>45907.6655310185</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1076,7 +1094,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4165448727</x:v>
+        <x:v>45929.5744521181</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1108,7 +1126,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4200832176</x:v>
+        <x:v>45912.8933942477</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1140,7 +1158,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6656269329</x:v>
+        <x:v>45907.4165448727</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1172,7 +1190,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45919.4762141551</x:v>
+        <x:v>45907.4200832176</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1204,7 +1222,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45927.4454287384</x:v>
+        <x:v>45907.6656269329</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1236,7 +1254,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45914.4389700579</x:v>
+        <x:v>45919.4762141551</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1268,7 +1286,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6652091435</x:v>
+        <x:v>45927.4454287384</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1300,7 +1318,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45925.7893116551</x:v>
+        <x:v>45914.4389700579</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1332,7 +1350,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6654596065</x:v>
+        <x:v>45907.6652091435</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1364,7 +1382,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45912.8907292824</x:v>
+        <x:v>45925.7893116551</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1396,7 +1414,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6646685995</x:v>
+        <x:v>45907.6654596065</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1428,7 +1446,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4149797454</x:v>
+        <x:v>45912.8907292824</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1460,7 +1478,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6654020833</x:v>
+        <x:v>45907.6646685995</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1492,7 +1510,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.665162963</x:v>
+        <x:v>45907.4149797454</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1524,7 +1542,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6653321412</x:v>
+        <x:v>45907.6654020833</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1556,7 +1574,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4149753819</x:v>
+        <x:v>45907.665162963</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1588,7 +1606,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6658606482</x:v>
+        <x:v>45907.6653321412</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1620,7 +1638,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45925.9122760069</x:v>
+        <x:v>45907.4149753819</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1652,7 +1670,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4153724537</x:v>
+        <x:v>45907.6658606482</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1684,7 +1702,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4181934375</x:v>
+        <x:v>45925.9122760069</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1716,7 +1734,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4200526273</x:v>
+        <x:v>45907.4153724537</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1748,7 +1766,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4148635417</x:v>
+        <x:v>45907.4181934375</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1780,7 +1798,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45912.8928851042</x:v>
+        <x:v>45907.4200526273</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1812,7 +1830,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6653508102</x:v>
+        <x:v>45907.4148635417</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1844,7 +1862,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45911.9793371528</x:v>
+        <x:v>45912.8928851042</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1876,7 +1894,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.665284375</x:v>
+        <x:v>45907.6653508102</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1908,7 +1926,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45923.5615092245</x:v>
+        <x:v>45911.9793371528</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1940,7 +1958,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4152035532</x:v>
+        <x:v>45907.665284375</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1972,7 +1990,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45922.7240253125</x:v>
+        <x:v>45923.5615092245</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2000,9 +2018,11 @@
       <x:c r="C35" s="2" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="D35" s="2" t="s"/>
+      <x:c r="D35" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
       <x:c r="E35" s="3">
-        <x:v>45927.4720945602</x:v>
+        <x:v>45907.4152035532</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2025,16 +2045,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C36" s="2" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D36" s="2" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6648720718</x:v>
+        <x:v>45922.7240253125</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2057,16 +2077,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C37" s="2" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="D37" s="2" t="s">
         <x:v>111</x:v>
       </x:c>
+      <x:c r="D37" s="2" t="s"/>
       <x:c r="E37" s="3">
-        <x:v>45928.9745405093</x:v>
+        <x:v>45927.4720945602</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2098,7 +2116,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.415737581</x:v>
+        <x:v>45907.6648720718</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2130,7 +2148,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6649320949</x:v>
+        <x:v>45928.9745405093</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2162,7 +2180,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45907.415737581</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2194,7 +2212,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.4194505787</x:v>
+        <x:v>45907.6649320949</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2226,7 +2244,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.664794213</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2258,7 +2276,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45912.8922424769</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2290,7 +2308,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45911.9745234606</x:v>
+        <x:v>45907.664794213</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2322,7 +2340,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6658591782</x:v>
+        <x:v>45912.8922424769</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2354,7 +2372,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45921.9223017014</x:v>
+        <x:v>45911.9745234606</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2386,7 +2404,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45916.2379621181</x:v>
+        <x:v>45907.6658591782</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2403,6 +2421,70 @@
       <x:c r="R47" s="2" t="s"/>
       <x:c r="S47" s="2" t="s"/>
       <x:c r="T47" s="2" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:20">
+      <x:c r="A48" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B48" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="C48" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="D48" s="2" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="E48" s="3">
+        <x:v>45921.9223017014</x:v>
+      </x:c>
+      <x:c r="F48" s="2" t="s"/>
+      <x:c r="G48" s="2" t="s"/>
+      <x:c r="H48" s="2" t="s"/>
+      <x:c r="I48" s="2" t="s"/>
+      <x:c r="J48" s="2" t="s"/>
+      <x:c r="K48" s="2" t="s"/>
+      <x:c r="L48" s="2" t="s"/>
+      <x:c r="M48" s="2" t="s"/>
+      <x:c r="N48" s="2" t="s"/>
+      <x:c r="O48" s="2" t="s"/>
+      <x:c r="P48" s="2" t="s"/>
+      <x:c r="Q48" s="2" t="s"/>
+      <x:c r="R48" s="2" t="s"/>
+      <x:c r="S48" s="2" t="s"/>
+      <x:c r="T48" s="2" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:20">
+      <x:c r="A49" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B49" s="2" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="D49" s="2" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="E49" s="3">
+        <x:v>45916.2379621181</x:v>
+      </x:c>
+      <x:c r="F49" s="2" t="s"/>
+      <x:c r="G49" s="2" t="s"/>
+      <x:c r="H49" s="2" t="s"/>
+      <x:c r="I49" s="2" t="s"/>
+      <x:c r="J49" s="2" t="s"/>
+      <x:c r="K49" s="2" t="s"/>
+      <x:c r="L49" s="2" t="s"/>
+      <x:c r="M49" s="2" t="s"/>
+      <x:c r="N49" s="2" t="s"/>
+      <x:c r="O49" s="2" t="s"/>
+      <x:c r="P49" s="2" t="s"/>
+      <x:c r="Q49" s="2" t="s"/>
+      <x:c r="R49" s="2" t="s"/>
+      <x:c r="S49" s="2" t="s"/>
+      <x:c r="T49" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES201_Tutorial-35647.xlsx
+++ b/downloaded_files/EPES201_Tutorial-35647.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -103,6 +103,15 @@
   </x:si>
   <x:si>
     <x:t>Tasneem Yahia Mohamed Farag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2230016</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جمانة جمال شريف فاضل</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> GUMANA GAMAL SHARIF FADHEL</x:t>
   </x:si>
   <x:si>
     <x:t>1230169</x:t>
@@ -575,7 +584,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E50" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -875,7 +884,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T49"/>
+  <x:dimension ref="A1:T50"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1222,7 +1231,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6656269329</x:v>
+        <x:v>45931.3040679745</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1254,7 +1263,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45919.4762141551</x:v>
+        <x:v>45907.6656269329</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1286,7 +1295,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45927.4454287384</x:v>
+        <x:v>45919.4762141551</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1318,7 +1327,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.4389700579</x:v>
+        <x:v>45927.4454287384</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1350,7 +1359,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6652091435</x:v>
+        <x:v>45914.4389700579</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1382,7 +1391,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45925.7893116551</x:v>
+        <x:v>45907.6652091435</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1414,7 +1423,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6654596065</x:v>
+        <x:v>45925.7893116551</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1446,7 +1455,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.8907292824</x:v>
+        <x:v>45907.6654596065</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1478,7 +1487,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6646685995</x:v>
+        <x:v>45912.8907292824</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1510,7 +1519,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4149797454</x:v>
+        <x:v>45907.6646685995</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1542,7 +1551,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6654020833</x:v>
+        <x:v>45907.4149797454</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1574,7 +1583,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.665162963</x:v>
+        <x:v>45907.6654020833</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1606,7 +1615,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6653321412</x:v>
+        <x:v>45907.665162963</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1638,7 +1647,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4149753819</x:v>
+        <x:v>45907.6653321412</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1670,7 +1679,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6658606482</x:v>
+        <x:v>45907.4149753819</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1702,7 +1711,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45925.9122760069</x:v>
+        <x:v>45907.6658606482</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1734,7 +1743,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4153724537</x:v>
+        <x:v>45925.9122760069</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1766,7 +1775,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4181934375</x:v>
+        <x:v>45907.4153724537</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1798,7 +1807,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4200526273</x:v>
+        <x:v>45907.4181934375</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1830,7 +1839,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4148635417</x:v>
+        <x:v>45907.4200526273</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1862,7 +1871,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45912.8928851042</x:v>
+        <x:v>45907.4148635417</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1894,7 +1903,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6653508102</x:v>
+        <x:v>45912.8928851042</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1926,7 +1935,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45911.9793371528</x:v>
+        <x:v>45907.6653508102</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1958,7 +1967,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.665284375</x:v>
+        <x:v>45911.9793371528</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1990,7 +1999,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45923.5615092245</x:v>
+        <x:v>45907.665284375</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2022,7 +2031,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4152035532</x:v>
+        <x:v>45923.5615092245</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2054,7 +2063,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45922.7240253125</x:v>
+        <x:v>45907.4152035532</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2082,9 +2091,11 @@
       <x:c r="C37" s="2" t="s">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="D37" s="2" t="s"/>
+      <x:c r="D37" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
       <x:c r="E37" s="3">
-        <x:v>45927.4720945602</x:v>
+        <x:v>45922.7240253125</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2107,16 +2118,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C38" s="2" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="D38" s="2" t="s">
         <x:v>114</x:v>
       </x:c>
+      <x:c r="D38" s="2" t="s"/>
       <x:c r="E38" s="3">
-        <x:v>45907.6648720718</x:v>
+        <x:v>45927.4720945602</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2148,7 +2157,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45928.9745405093</x:v>
+        <x:v>45907.6648720718</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2180,7 +2189,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.415737581</x:v>
+        <x:v>45928.9745405093</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2212,7 +2221,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6649320949</x:v>
+        <x:v>45907.415737581</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2244,7 +2253,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45907.6649320949</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2276,7 +2285,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.4194505787</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2308,7 +2317,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.664794213</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2340,7 +2349,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45912.8922424769</x:v>
+        <x:v>45907.664794213</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2372,7 +2381,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45911.9745234606</x:v>
+        <x:v>45912.8922424769</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2404,7 +2413,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.6658591782</x:v>
+        <x:v>45911.9745234606</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2436,7 +2445,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45921.9223017014</x:v>
+        <x:v>45907.6658591782</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2468,7 +2477,7 @@
         <x:v>147</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45916.2379621181</x:v>
+        <x:v>45921.9223017014</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2485,6 +2494,38 @@
       <x:c r="R49" s="2" t="s"/>
       <x:c r="S49" s="2" t="s"/>
       <x:c r="T49" s="2" t="s"/>
+    </x:row>
+    <x:row r="50" spans="1:20">
+      <x:c r="A50" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B50" s="2" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="C50" s="2" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="D50" s="2" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="E50" s="3">
+        <x:v>45916.2379621181</x:v>
+      </x:c>
+      <x:c r="F50" s="2" t="s"/>
+      <x:c r="G50" s="2" t="s"/>
+      <x:c r="H50" s="2" t="s"/>
+      <x:c r="I50" s="2" t="s"/>
+      <x:c r="J50" s="2" t="s"/>
+      <x:c r="K50" s="2" t="s"/>
+      <x:c r="L50" s="2" t="s"/>
+      <x:c r="M50" s="2" t="s"/>
+      <x:c r="N50" s="2" t="s"/>
+      <x:c r="O50" s="2" t="s"/>
+      <x:c r="P50" s="2" t="s"/>
+      <x:c r="Q50" s="2" t="s"/>
+      <x:c r="R50" s="2" t="s"/>
+      <x:c r="S50" s="2" t="s"/>
+      <x:c r="T50" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES201_Tutorial-35647.xlsx
+++ b/downloaded_files/EPES201_Tutorial-35647.xlsx
@@ -132,15 +132,6 @@
     <x:t>GANA MOHAMED AHMED ALI AHMED</x:t>
   </x:si>
   <x:si>
-    <x:t>1240294</x:t>
-  </x:si>
-  <x:si>
-    <x:t>جنى حسام الدين احمد عبدالفتاح</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jana HossamEldin Ahmed Abdelfattah</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240193</x:t>
   </x:si>
   <x:si>
@@ -355,6 +346,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Algharieb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250175</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد ايمن نبيل ابراهيم حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Ayman Nabil Ibrahim Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>4240046</x:t>
@@ -1327,7 +1327,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45927.4454287384</x:v>
+        <x:v>45914.4389700579</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1359,7 +1359,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.4389700579</x:v>
+        <x:v>45907.6652091435</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1391,7 +1391,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6652091435</x:v>
+        <x:v>45925.7893116551</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1423,7 +1423,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45925.7893116551</x:v>
+        <x:v>45907.6654596065</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1455,7 +1455,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6654596065</x:v>
+        <x:v>45912.8907292824</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1487,7 +1487,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.8907292824</x:v>
+        <x:v>45907.6646685995</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1519,7 +1519,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6646685995</x:v>
+        <x:v>45907.4149797454</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1551,7 +1551,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4149797454</x:v>
+        <x:v>45907.6654020833</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1583,7 +1583,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6654020833</x:v>
+        <x:v>45907.665162963</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1615,7 +1615,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.665162963</x:v>
+        <x:v>45907.6653321412</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1647,7 +1647,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6653321412</x:v>
+        <x:v>45907.4149753819</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1679,7 +1679,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4149753819</x:v>
+        <x:v>45907.6658606482</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1711,7 +1711,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6658606482</x:v>
+        <x:v>45925.9122760069</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1743,7 +1743,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45925.9122760069</x:v>
+        <x:v>45907.4153724537</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1775,7 +1775,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4153724537</x:v>
+        <x:v>45907.4181934375</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1807,7 +1807,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4181934375</x:v>
+        <x:v>45907.4200526273</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1839,7 +1839,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4200526273</x:v>
+        <x:v>45907.4148635417</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1871,7 +1871,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4148635417</x:v>
+        <x:v>45912.8928851042</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1903,7 +1903,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45912.8928851042</x:v>
+        <x:v>45907.6653508102</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1935,7 +1935,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6653508102</x:v>
+        <x:v>45911.9793371528</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1967,7 +1967,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45911.9793371528</x:v>
+        <x:v>45907.665284375</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1999,7 +1999,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.665284375</x:v>
+        <x:v>45923.5615092245</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2031,7 +2031,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45923.5615092245</x:v>
+        <x:v>45907.4152035532</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2063,7 +2063,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4152035532</x:v>
+        <x:v>45922.7240253125</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2095,7 +2095,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45922.7240253125</x:v>
+        <x:v>45929.5640316782</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>

--- a/downloaded_files/EPES201_Tutorial-35647.xlsx
+++ b/downloaded_files/EPES201_Tutorial-35647.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -103,15 +103,6 @@
   </x:si>
   <x:si>
     <x:t>Tasneem Yahia Mohamed Farag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2230016</x:t>
-  </x:si>
-  <x:si>
-    <x:t>جمانة جمال شريف فاضل</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> GUMANA GAMAL SHARIF FADHEL</x:t>
   </x:si>
   <x:si>
     <x:t>1230169</x:t>
@@ -584,7 +575,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E50" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -884,7 +875,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T50"/>
+  <x:dimension ref="A1:T49"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1231,7 +1222,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45931.3040679745</x:v>
+        <x:v>45907.6656269329</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1263,7 +1254,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6656269329</x:v>
+        <x:v>45919.4762141551</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1295,7 +1286,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45919.4762141551</x:v>
+        <x:v>45914.4389700579</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1327,7 +1318,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.4389700579</x:v>
+        <x:v>45907.6652091435</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1359,7 +1350,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6652091435</x:v>
+        <x:v>45925.7893116551</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1391,7 +1382,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45925.7893116551</x:v>
+        <x:v>45907.6654596065</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1423,7 +1414,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6654596065</x:v>
+        <x:v>45912.8907292824</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1455,7 +1446,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.8907292824</x:v>
+        <x:v>45907.6646685995</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1487,7 +1478,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6646685995</x:v>
+        <x:v>45907.4149797454</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1519,7 +1510,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4149797454</x:v>
+        <x:v>45907.6654020833</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1551,7 +1542,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6654020833</x:v>
+        <x:v>45907.665162963</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1583,7 +1574,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.665162963</x:v>
+        <x:v>45907.6653321412</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1615,7 +1606,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6653321412</x:v>
+        <x:v>45907.4149753819</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1647,7 +1638,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4149753819</x:v>
+        <x:v>45907.6658606482</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1679,7 +1670,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6658606482</x:v>
+        <x:v>45925.9122760069</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1711,7 +1702,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45925.9122760069</x:v>
+        <x:v>45907.4153724537</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1743,7 +1734,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4153724537</x:v>
+        <x:v>45907.4181934375</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1775,7 +1766,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4181934375</x:v>
+        <x:v>45907.4200526273</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1807,7 +1798,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4200526273</x:v>
+        <x:v>45907.4148635417</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1839,7 +1830,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4148635417</x:v>
+        <x:v>45912.8928851042</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1871,7 +1862,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45912.8928851042</x:v>
+        <x:v>45907.6653508102</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1903,7 +1894,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6653508102</x:v>
+        <x:v>45911.9793371528</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1935,7 +1926,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45911.9793371528</x:v>
+        <x:v>45907.665284375</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1967,7 +1958,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.665284375</x:v>
+        <x:v>45923.5615092245</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1999,7 +1990,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45923.5615092245</x:v>
+        <x:v>45907.4152035532</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2031,7 +2022,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4152035532</x:v>
+        <x:v>45922.7240253125</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2063,7 +2054,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45922.7240253125</x:v>
+        <x:v>45929.5640316782</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2091,11 +2082,9 @@
       <x:c r="C37" s="2" t="s">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
+      <x:c r="D37" s="2" t="s"/>
       <x:c r="E37" s="3">
-        <x:v>45929.5640316782</x:v>
+        <x:v>45927.4720945602</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2118,14 +2107,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="C38" s="2" t="s">
+      <x:c r="D38" s="2" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="D38" s="2" t="s"/>
       <x:c r="E38" s="3">
-        <x:v>45927.4720945602</x:v>
+        <x:v>45907.6648720718</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2157,7 +2148,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6648720718</x:v>
+        <x:v>45928.9745405093</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2189,7 +2180,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45928.9745405093</x:v>
+        <x:v>45907.415737581</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2221,7 +2212,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.415737581</x:v>
+        <x:v>45907.6649320949</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2253,7 +2244,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6649320949</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2285,7 +2276,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2317,7 +2308,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.4194505787</x:v>
+        <x:v>45907.664794213</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2349,7 +2340,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.664794213</x:v>
+        <x:v>45912.8922424769</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2381,7 +2372,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45912.8922424769</x:v>
+        <x:v>45911.9745234606</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2413,7 +2404,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45911.9745234606</x:v>
+        <x:v>45907.6658591782</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2445,7 +2436,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.6658591782</x:v>
+        <x:v>45921.9223017014</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2477,7 +2468,7 @@
         <x:v>147</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45921.9223017014</x:v>
+        <x:v>45916.2379621181</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2494,38 +2485,6 @@
       <x:c r="R49" s="2" t="s"/>
       <x:c r="S49" s="2" t="s"/>
       <x:c r="T49" s="2" t="s"/>
-    </x:row>
-    <x:row r="50" spans="1:20">
-      <x:c r="A50" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B50" s="2" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="C50" s="2" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="D50" s="2" t="s">
-        <x:v>150</x:v>
-      </x:c>
-      <x:c r="E50" s="3">
-        <x:v>45916.2379621181</x:v>
-      </x:c>
-      <x:c r="F50" s="2" t="s"/>
-      <x:c r="G50" s="2" t="s"/>
-      <x:c r="H50" s="2" t="s"/>
-      <x:c r="I50" s="2" t="s"/>
-      <x:c r="J50" s="2" t="s"/>
-      <x:c r="K50" s="2" t="s"/>
-      <x:c r="L50" s="2" t="s"/>
-      <x:c r="M50" s="2" t="s"/>
-      <x:c r="N50" s="2" t="s"/>
-      <x:c r="O50" s="2" t="s"/>
-      <x:c r="P50" s="2" t="s"/>
-      <x:c r="Q50" s="2" t="s"/>
-      <x:c r="R50" s="2" t="s"/>
-      <x:c r="S50" s="2" t="s"/>
-      <x:c r="T50" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES201_Tutorial-35647.xlsx
+++ b/downloaded_files/EPES201_Tutorial-35647.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -351,7 +351,10 @@
     <x:t>4240046</x:t>
   </x:si>
   <x:si>
-    <x:t>محمد شعبان محمد صالح</x:t>
+    <x:t>محمد شعبان محمد صالح حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mohamed shabaan mohamed saleh hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1240363</x:t>
@@ -2082,7 +2085,9 @@
       <x:c r="C37" s="2" t="s">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="D37" s="2" t="s"/>
+      <x:c r="D37" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
       <x:c r="E37" s="3">
         <x:v>45927.4720945602</x:v>
       </x:c>
@@ -2107,13 +2112,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C38" s="2" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D38" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
         <x:v>45907.6648720718</x:v>
@@ -2139,13 +2144,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C39" s="2" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D39" s="2" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
         <x:v>45928.9745405093</x:v>
@@ -2171,13 +2176,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C40" s="2" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D40" s="2" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
         <x:v>45907.415737581</x:v>
@@ -2203,13 +2208,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C41" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D41" s="2" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
         <x:v>45907.6649320949</x:v>
@@ -2235,13 +2240,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C42" s="2" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D42" s="2" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
         <x:v>45907.6648476505</x:v>
@@ -2267,13 +2272,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B43" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C43" s="2" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D43" s="2" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
         <x:v>45907.4194505787</x:v>
@@ -2299,13 +2304,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B44" s="2" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C44" s="2" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="D44" s="2" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
         <x:v>45907.664794213</x:v>
@@ -2331,13 +2336,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B45" s="2" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="C45" s="2" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D45" s="2" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
         <x:v>45912.8922424769</x:v>
@@ -2363,13 +2368,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B46" s="2" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="C46" s="2" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="D46" s="2" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
         <x:v>45911.9745234606</x:v>
@@ -2395,13 +2400,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B47" s="2" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="C47" s="2" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D47" s="2" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
         <x:v>45907.6658591782</x:v>
@@ -2427,13 +2432,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B48" s="2" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C48" s="2" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D48" s="2" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
         <x:v>45921.9223017014</x:v>
@@ -2459,13 +2464,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B49" s="2" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C49" s="2" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D49" s="2" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
         <x:v>45916.2379621181</x:v>

--- a/downloaded_files/EPES201_Tutorial-35647.xlsx
+++ b/downloaded_files/EPES201_Tutorial-35647.xlsx
@@ -228,7 +228,7 @@
     <x:t>على حسن على حسن على</x:t>
   </x:si>
   <x:si>
-    <x:t>Ali Hassan Ali Hassan</x:t>
+    <x:t>Ali Hassan Ali Hassan Ali</x:t>
   </x:si>
   <x:si>
     <x:t>1210061</x:t>
@@ -399,7 +399,7 @@
     <x:t>مينا وجيه خليل شاكر اسحاق عبد المسيح</x:t>
   </x:si>
   <x:si>
-    <x:t>Mina Wageh Khalil Shaker Eshak Abdelmaish</x:t>
+    <x:t>Mina Wageh Khalil Shaker Eshak Abdelmasih</x:t>
   </x:si>
   <x:si>
     <x:t>1220149</x:t>
@@ -426,7 +426,7 @@
     <x:t>هنا ايمن عبداللطيف عبدالحميد احمد سلام</x:t>
   </x:si>
   <x:si>
-    <x:t>Hana Ayman Abdellatif</x:t>
+    <x:t>Hana Ayman Abdellatif Abdelhamed Ahmed Sallam</x:t>
   </x:si>
   <x:si>
     <x:t>1230284</x:t>

--- a/downloaded_files/EPES201_Tutorial-35647.xlsx
+++ b/downloaded_files/EPES201_Tutorial-35647.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -328,15 +328,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Ahmed fahmy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250191</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد الغريب عبدالوهاب الغريب مصطفى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Algharieb</x:t>
   </x:si>
   <x:si>
     <x:t>4250175</x:t>
@@ -578,7 +569,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -878,7 +869,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T49"/>
+  <x:dimension ref="A1:T48"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2025,7 +2016,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45922.7240253125</x:v>
+        <x:v>45929.5640316782</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2057,7 +2048,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45929.5640316782</x:v>
+        <x:v>45927.4720945602</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2089,7 +2080,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45927.4720945602</x:v>
+        <x:v>45907.6648720718</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2121,7 +2112,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6648720718</x:v>
+        <x:v>45928.9745405093</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2153,7 +2144,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45928.9745405093</x:v>
+        <x:v>45907.415737581</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2185,7 +2176,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.415737581</x:v>
+        <x:v>45907.6649320949</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2217,7 +2208,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6649320949</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2249,7 +2240,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2281,7 +2272,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.4194505787</x:v>
+        <x:v>45907.664794213</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2313,7 +2304,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.664794213</x:v>
+        <x:v>45912.8922424769</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2345,7 +2336,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45912.8922424769</x:v>
+        <x:v>45911.9745234606</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2377,7 +2368,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45911.9745234606</x:v>
+        <x:v>45907.6658591782</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2409,7 +2400,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.6658591782</x:v>
+        <x:v>45921.9223017014</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2441,7 +2432,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45921.9223017014</x:v>
+        <x:v>45916.2379621181</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2458,38 +2449,6 @@
       <x:c r="R48" s="2" t="s"/>
       <x:c r="S48" s="2" t="s"/>
       <x:c r="T48" s="2" t="s"/>
-    </x:row>
-    <x:row r="49" spans="1:20">
-      <x:c r="A49" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B49" s="2" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="C49" s="2" t="s">
-        <x:v>147</x:v>
-      </x:c>
-      <x:c r="D49" s="2" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="E49" s="3">
-        <x:v>45916.2379621181</x:v>
-      </x:c>
-      <x:c r="F49" s="2" t="s"/>
-      <x:c r="G49" s="2" t="s"/>
-      <x:c r="H49" s="2" t="s"/>
-      <x:c r="I49" s="2" t="s"/>
-      <x:c r="J49" s="2" t="s"/>
-      <x:c r="K49" s="2" t="s"/>
-      <x:c r="L49" s="2" t="s"/>
-      <x:c r="M49" s="2" t="s"/>
-      <x:c r="N49" s="2" t="s"/>
-      <x:c r="O49" s="2" t="s"/>
-      <x:c r="P49" s="2" t="s"/>
-      <x:c r="Q49" s="2" t="s"/>
-      <x:c r="R49" s="2" t="s"/>
-      <x:c r="S49" s="2" t="s"/>
-      <x:c r="T49" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
